--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1999541.892460451</v>
+        <v>-2001470.654364026</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3181294.395516923</v>
+        <v>3181294.395516924</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>140.1741819907024</v>
+        <v>236.3626115273232</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.16194852731947</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>18.21212347244776</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>138.887544691111</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>273.3993576984261</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>331.2414836209406</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>331.2414836209394</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.97132048399257</v>
+        <v>265.4271222836001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>129.0507428586463</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.6450715103052</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>331.2414836209394</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>331.2414836209406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.07729837281443</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>89.14820727672667</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.3894603225785</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.4499895666097</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9297160451498</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>84.62522760375788</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.842317087727</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>4.997638917231818</v>
+        <v>4.997638917232052</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>62.69514505597886</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>63.29064104507968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>103.232225911793</v>
       </c>
       <c r="D8" t="n">
-        <v>275.0124046973082</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>81.43762523993581</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>205.3743261851591</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896904</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>136.929445018024</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>238.8647284385394</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>113.1999233045074</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>38.5974404355342</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,19 +1895,19 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,25 +2002,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>144.0800242012094</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056512</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2138,10 +2138,10 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2175,10 +2175,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>114.9309043193614</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750025</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985774</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>161.4046520073175</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065111</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>152.2303518676588</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>95.50496678563069</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.8919401490991</v>
       </c>
       <c r="H28" t="n">
-        <v>121.3122000532575</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>82.8176171499934</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>170.3191816693246</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>193.9459327441106</v>
+        <v>193.9459327441108</v>
       </c>
       <c r="U28" t="n">
-        <v>258.6357240842987</v>
+        <v>258.6357240842989</v>
       </c>
       <c r="V28" t="n">
-        <v>224.5360150095494</v>
+        <v>224.5360150095495</v>
       </c>
       <c r="W28" t="n">
-        <v>258.9213700223124</v>
+        <v>258.9213700223125</v>
       </c>
       <c r="X28" t="n">
-        <v>198.1080270747586</v>
+        <v>185.9566756783884</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>190.9830250378163</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>118.8323343322907</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>138.891940149099</v>
+        <v>15.62210841708074</v>
       </c>
       <c r="H31" t="n">
-        <v>121.3122000532575</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>82.8176171499934</v>
+        <v>82.81761714999354</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>82.3627240895142</v>
+        <v>82.36272408951434</v>
       </c>
       <c r="S31" t="n">
-        <v>44.56948421634233</v>
+        <v>170.3191816693248</v>
       </c>
       <c r="T31" t="n">
-        <v>193.9459327441106</v>
+        <v>193.9459327441108</v>
       </c>
       <c r="U31" t="n">
-        <v>258.6357240842987</v>
+        <v>258.6357240842989</v>
       </c>
       <c r="V31" t="n">
-        <v>224.5360150095494</v>
+        <v>224.5360150095495</v>
       </c>
       <c r="W31" t="n">
-        <v>258.9213700223124</v>
+        <v>258.9213700223125</v>
       </c>
       <c r="X31" t="n">
-        <v>198.1080270747586</v>
+        <v>198.1080270747587</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>313.7984799426212</v>
       </c>
       <c r="F35" t="n">
-        <v>338.7441556120687</v>
+        <v>338.7441556120708</v>
       </c>
       <c r="G35" t="n">
         <v>343.8326266600508</v>
@@ -3323,7 +3323,7 @@
         <v>182.9467051201603</v>
       </c>
       <c r="V35" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404931</v>
       </c>
       <c r="W35" t="n">
         <v>281.1090785877724</v>
@@ -3515,7 +3515,7 @@
         <v>338.7441556120708</v>
       </c>
       <c r="G38" t="n">
-        <v>343.8326266600482</v>
+        <v>343.8326266600508</v>
       </c>
       <c r="H38" t="n">
         <v>237.1553589816771</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.81847467555819</v>
+        <v>64.81847467555693</v>
       </c>
       <c r="T38" t="n">
         <v>140.3508982088613</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3755,10 +3755,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H41" t="n">
-        <v>237.155358981677</v>
+        <v>237.1553589816771</v>
       </c>
       <c r="I41" t="n">
-        <v>13.64724492310009</v>
+        <v>13.6472449231001</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.81847467555818</v>
+        <v>64.81847467555819</v>
       </c>
       <c r="T41" t="n">
         <v>140.3508982088613</v>
@@ -3797,7 +3797,7 @@
         <v>182.9467051201603</v>
       </c>
       <c r="V41" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404943</v>
       </c>
       <c r="W41" t="n">
         <v>281.1090785877724</v>
@@ -3806,7 +3806,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y41" t="n">
-        <v>318.1060485264129</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>237.155358981677</v>
       </c>
       <c r="I44" t="n">
-        <v>13.64724492310006</v>
+        <v>13.64724492309917</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>182.9467051201603</v>
       </c>
       <c r="V44" t="n">
-        <v>259.6203683404926</v>
+        <v>259.6203683404942</v>
       </c>
       <c r="W44" t="n">
         <v>281.1090785877723</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>672.0084928939002</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="C2" t="n">
-        <v>393.0625194571775</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="D2" t="n">
-        <v>251.4724366382861</v>
+        <v>586.9299687188372</v>
       </c>
       <c r="E2" t="n">
-        <v>251.4724366382861</v>
+        <v>307.9839952821146</v>
       </c>
       <c r="F2" t="n">
-        <v>244.5269358890827</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618846</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438682</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173955</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
         <v>989.7620250901064</v>
@@ -4355,25 +4355,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>896.7353068029595</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>672.0084928939002</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>672.0084928939002</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V2" t="n">
-        <v>672.0084928939002</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W2" t="n">
-        <v>672.0084928939002</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X2" t="n">
-        <v>672.0084928939002</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="Y2" t="n">
-        <v>672.0084928939002</v>
+        <v>825.6800813726991</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>374.1790896983748</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="C3" t="n">
-        <v>199.7260604172477</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="D3" t="n">
-        <v>199.7260604172477</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="E3" t="n">
-        <v>40.48860541179224</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="F3" t="n">
-        <v>40.48860541179224</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="G3" t="n">
-        <v>40.48860541179224</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="H3" t="n">
-        <v>40.48860541179224</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K3" t="n">
-        <v>159.4923828364511</v>
+        <v>45.18387750277338</v>
       </c>
       <c r="L3" t="n">
-        <v>405.6478494291521</v>
+        <v>291.3393440954744</v>
       </c>
       <c r="M3" t="n">
-        <v>555.4329354292296</v>
+        <v>564.7342926608062</v>
       </c>
       <c r="N3" t="n">
-        <v>828.8278839945615</v>
+        <v>838.129241226138</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945615</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>836.1767451915302</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="T3" t="n">
-        <v>836.1767451915302</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="U3" t="n">
-        <v>836.1767451915302</v>
+        <v>792.3315928776599</v>
       </c>
       <c r="V3" t="n">
-        <v>836.1767451915302</v>
+        <v>557.1794846459172</v>
       </c>
       <c r="W3" t="n">
-        <v>581.9393884633287</v>
+        <v>302.9421279177155</v>
       </c>
       <c r="X3" t="n">
-        <v>581.9393884633287</v>
+        <v>302.9421279177155</v>
       </c>
       <c r="Y3" t="n">
-        <v>374.1790896983748</v>
+        <v>302.9421279177155</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>659.3156899473225</v>
+        <v>636.1403809586154</v>
       </c>
       <c r="C5" t="n">
-        <v>383.154722575175</v>
+        <v>636.1403809586154</v>
       </c>
       <c r="D5" t="n">
-        <v>48.56736538230557</v>
+        <v>636.1403809586154</v>
       </c>
       <c r="E5" t="n">
-        <v>48.56736538230557</v>
+        <v>301.5530237657474</v>
       </c>
       <c r="F5" t="n">
-        <v>41.62186463310209</v>
+        <v>294.6075230165439</v>
       </c>
       <c r="G5" t="n">
-        <v>26.49931868967525</v>
+        <v>26.49931868967515</v>
       </c>
       <c r="H5" t="n">
-        <v>26.49931868967525</v>
+        <v>26.49931868967515</v>
       </c>
       <c r="I5" t="n">
-        <v>26.49931868967525</v>
+        <v>26.49931868967515</v>
       </c>
       <c r="J5" t="n">
-        <v>42.5168424130685</v>
+        <v>42.51684241306793</v>
       </c>
       <c r="K5" t="n">
-        <v>187.2677626074289</v>
+        <v>187.2677626074277</v>
       </c>
       <c r="L5" t="n">
-        <v>419.1207064026838</v>
+        <v>419.1207064026819</v>
       </c>
       <c r="M5" t="n">
-        <v>693.7083251274884</v>
+        <v>693.7083251274858</v>
       </c>
       <c r="N5" t="n">
-        <v>958.1070610499644</v>
+        <v>958.1070610499611</v>
       </c>
       <c r="O5" t="n">
-        <v>1162.58365208546</v>
+        <v>1162.583652085456</v>
       </c>
       <c r="P5" t="n">
-        <v>1299.425308893593</v>
+        <v>1299.425308893588</v>
       </c>
       <c r="Q5" t="n">
-        <v>1324.965934483763</v>
+        <v>1324.965934483758</v>
       </c>
       <c r="R5" t="n">
-        <v>1324.965934483763</v>
+        <v>1194.611648767953</v>
       </c>
       <c r="S5" t="n">
-        <v>1324.965934483763</v>
+        <v>1194.611648767953</v>
       </c>
       <c r="T5" t="n">
-        <v>1324.965934483763</v>
+        <v>970.7277381514834</v>
       </c>
       <c r="U5" t="n">
-        <v>1324.965934483763</v>
+        <v>970.7277381514834</v>
       </c>
       <c r="V5" t="n">
-        <v>993.9030471401919</v>
+        <v>970.7277381514834</v>
       </c>
       <c r="W5" t="n">
-        <v>993.9030471401919</v>
+        <v>636.1403809586154</v>
       </c>
       <c r="X5" t="n">
-        <v>993.9030471401919</v>
+        <v>636.1403809586154</v>
       </c>
       <c r="Y5" t="n">
-        <v>659.3156899473225</v>
+        <v>636.1403809586154</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.6587706106241</v>
+        <v>427.2989057821997</v>
       </c>
       <c r="C6" t="n">
-        <v>481.2057413294971</v>
+        <v>427.2989057821997</v>
       </c>
       <c r="D6" t="n">
-        <v>332.2713316682458</v>
+        <v>427.2989057821997</v>
       </c>
       <c r="E6" t="n">
-        <v>173.0338766627903</v>
+        <v>268.0614507767442</v>
       </c>
       <c r="F6" t="n">
-        <v>26.49931868967525</v>
+        <v>121.5268928036291</v>
       </c>
       <c r="G6" t="n">
-        <v>26.49931868967525</v>
+        <v>121.5268928036291</v>
       </c>
       <c r="H6" t="n">
-        <v>26.49931868967525</v>
+        <v>26.49931868967515</v>
       </c>
       <c r="I6" t="n">
-        <v>26.49931868967525</v>
+        <v>26.49931868967515</v>
       </c>
       <c r="J6" t="n">
-        <v>42.34586640530236</v>
+        <v>42.34586640530203</v>
       </c>
       <c r="K6" t="n">
-        <v>196.0509835671039</v>
+        <v>196.0509835671031</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7830246817176</v>
+        <v>464.1308782675603</v>
       </c>
       <c r="M6" t="n">
-        <v>614.7120934664488</v>
+        <v>792.0599470522903</v>
       </c>
       <c r="N6" t="n">
-        <v>942.64116225118</v>
+        <v>818.2786641186798</v>
       </c>
       <c r="O6" t="n">
-        <v>1233.162507731474</v>
+        <v>1108.800009598973</v>
       </c>
       <c r="P6" t="n">
-        <v>1233.162507731474</v>
+        <v>1324.965934483758</v>
       </c>
       <c r="Q6" t="n">
-        <v>1324.965934483763</v>
+        <v>1324.965934483758</v>
       </c>
       <c r="R6" t="n">
-        <v>1324.965934483763</v>
+        <v>1234.917240264842</v>
       </c>
       <c r="S6" t="n">
-        <v>1324.965934483763</v>
+        <v>1064.826876302641</v>
       </c>
       <c r="T6" t="n">
-        <v>1324.965934483763</v>
+        <v>863.3622403767727</v>
       </c>
       <c r="U6" t="n">
-        <v>1324.965934483763</v>
+        <v>635.1504059877325</v>
       </c>
       <c r="V6" t="n">
-        <v>1324.965934483763</v>
+        <v>635.1504059877325</v>
       </c>
       <c r="W6" t="n">
-        <v>1239.485906601179</v>
+        <v>635.1504059877325</v>
       </c>
       <c r="X6" t="n">
-        <v>1031.634406395646</v>
+        <v>427.2989057821997</v>
       </c>
       <c r="Y6" t="n">
-        <v>823.8741076306922</v>
+        <v>427.2989057821997</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.4836217359982</v>
+        <v>201.0851328360985</v>
       </c>
       <c r="C7" t="n">
-        <v>31.54743880809123</v>
+        <v>201.0851328360985</v>
       </c>
       <c r="D7" t="n">
-        <v>31.54743880809123</v>
+        <v>201.0851328360985</v>
       </c>
       <c r="E7" t="n">
-        <v>31.54743880809123</v>
+        <v>201.0851328360985</v>
       </c>
       <c r="F7" t="n">
-        <v>31.54743880809123</v>
+        <v>201.0851328360985</v>
       </c>
       <c r="G7" t="n">
-        <v>31.54743880809123</v>
+        <v>31.54743880809137</v>
       </c>
       <c r="H7" t="n">
-        <v>31.54743880809123</v>
+        <v>31.54743880809137</v>
       </c>
       <c r="I7" t="n">
-        <v>31.54743880809123</v>
+        <v>31.54743880809137</v>
       </c>
       <c r="J7" t="n">
-        <v>31.54743880809123</v>
+        <v>31.54743880809137</v>
       </c>
       <c r="K7" t="n">
-        <v>26.49931868967525</v>
+        <v>26.49931868967515</v>
       </c>
       <c r="L7" t="n">
-        <v>75.69444867730985</v>
+        <v>75.69444867730945</v>
       </c>
       <c r="M7" t="n">
-        <v>137.9529386775783</v>
+        <v>137.9529386775776</v>
       </c>
       <c r="N7" t="n">
-        <v>204.1656773620608</v>
+        <v>204.1656773620597</v>
       </c>
       <c r="O7" t="n">
-        <v>249.3075628649937</v>
+        <v>249.3075628649923</v>
       </c>
       <c r="P7" t="n">
-        <v>264.4135621855736</v>
+        <v>264.4135621855721</v>
       </c>
       <c r="Q7" t="n">
-        <v>264.4135621855736</v>
+        <v>264.4135621855721</v>
       </c>
       <c r="R7" t="n">
-        <v>264.4135621855736</v>
+        <v>264.4135621855721</v>
       </c>
       <c r="S7" t="n">
-        <v>264.4135621855736</v>
+        <v>264.4135621855721</v>
       </c>
       <c r="T7" t="n">
-        <v>264.4135621855736</v>
+        <v>264.4135621855721</v>
       </c>
       <c r="U7" t="n">
-        <v>264.4135621855736</v>
+        <v>264.4135621855721</v>
       </c>
       <c r="V7" t="n">
-        <v>264.4135621855736</v>
+        <v>201.0851328360985</v>
       </c>
       <c r="W7" t="n">
-        <v>264.4135621855736</v>
+        <v>201.0851328360985</v>
       </c>
       <c r="X7" t="n">
-        <v>264.4135621855736</v>
+        <v>201.0851328360985</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.4836217359982</v>
+        <v>201.0851328360985</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1529.645519427256</v>
+        <v>1372.955922978507</v>
       </c>
       <c r="C8" t="n">
-        <v>1160.683002486844</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117851</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491377</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491377</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>1916.245359491377</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y8" t="n">
-        <v>1916.245359491377</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4908,25 +4908,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>329.7728273507099</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>329.7728273507099</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>329.7728273507099</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>181.8597337683168</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>181.8597337683168</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4993,19 +4993,19 @@
         <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>261.391796148808</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>261.391796148808</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W10" t="n">
-        <v>261.391796148808</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036444</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>329.7728273507099</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.2811958984815</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="C13" t="n">
-        <v>527.3450129705744</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3450129705744</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5203,16 +5203,16 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1360.603699832626</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1360.603699832626</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U13" t="n">
-        <v>1360.603699832626</v>
+        <v>1057.718757000182</v>
       </c>
       <c r="V13" t="n">
-        <v>1105.919211626739</v>
+        <v>803.0342687942954</v>
       </c>
       <c r="W13" t="n">
-        <v>1105.919211626739</v>
+        <v>803.0342687942954</v>
       </c>
       <c r="X13" t="n">
-        <v>877.9296607287213</v>
+        <v>803.0342687942954</v>
       </c>
       <c r="Y13" t="n">
-        <v>877.9296607287213</v>
+        <v>582.2416896507652</v>
       </c>
     </row>
     <row r="14">
@@ -5264,43 +5264,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.130185042679</v>
+        <v>696.5850465240051</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>527.6488635960982</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>527.6488635960982</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>379.7357700137051</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>379.7357700137051</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>211.5604483335257</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1260.008946902208</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>970.880308115766</v>
+        <v>986.0022165609657</v>
       </c>
       <c r="V16" t="n">
-        <v>716.1958199098791</v>
+        <v>986.0022165609657</v>
       </c>
       <c r="W16" t="n">
-        <v>426.7786498729187</v>
+        <v>696.5850465240051</v>
       </c>
       <c r="X16" t="n">
-        <v>426.7786498729187</v>
+        <v>696.5850465240051</v>
       </c>
       <c r="Y16" t="n">
-        <v>426.7786498729187</v>
+        <v>696.5850465240051</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5501,19 +5501,19 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155891</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5528,28 +5528,28 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>929.516333276596</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M18" t="n">
-        <v>1236.836466556558</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>2041.248044820708</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>2320.788110039405</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>988.7065213774113</v>
+        <v>97.21709146028604</v>
       </c>
       <c r="C19" t="n">
-        <v>819.7703384495044</v>
+        <v>97.21709146028604</v>
       </c>
       <c r="D19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028604</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028604</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>241.9805482336711</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.499100520942</v>
+        <v>241.9805482336711</v>
       </c>
       <c r="Y19" t="n">
-        <v>988.7065213774113</v>
+        <v>97.21709146028604</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5741,61 +5741,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643329</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899133</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207836</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5814,40 +5814,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256437</v>
       </c>
       <c r="K21" t="n">
-        <v>485.4047026089419</v>
+        <v>410.8745301331589</v>
       </c>
       <c r="L21" t="n">
-        <v>732.1698305154059</v>
+        <v>1024.771599890048</v>
       </c>
       <c r="M21" t="n">
-        <v>1039.489963795367</v>
+        <v>1332.091733170011</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834044</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136704</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918914</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799371</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471203</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974668</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980065</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585748</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.84116711973</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387593</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011509</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952639</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,7 +6063,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6075,7 +6075,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6148,22 +6148,22 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1335.881268530309</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1112.095853319815</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V25" t="n">
-        <v>835.4163915387942</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018335</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038161</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6215,13 +6215,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6233,22 +6233,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>709.4934589365143</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.813592216476</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880509</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>399.878489428853</v>
+        <v>237.51198049978</v>
       </c>
       <c r="C28" t="n">
-        <v>399.878489428853</v>
+        <v>237.51198049978</v>
       </c>
       <c r="D28" t="n">
-        <v>303.4088260090241</v>
+        <v>237.51198049978</v>
       </c>
       <c r="E28" t="n">
-        <v>303.4088260090241</v>
+        <v>237.51198049978</v>
       </c>
       <c r="F28" t="n">
-        <v>303.4088260090241</v>
+        <v>237.51198049978</v>
       </c>
       <c r="G28" t="n">
-        <v>303.4088260090241</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>180.871250197653</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>136.9253959553315</v>
+        <v>136.9253959553314</v>
       </c>
       <c r="K28" t="n">
-        <v>314.4364122310788</v>
+        <v>314.4364122310785</v>
       </c>
       <c r="L28" t="n">
-        <v>589.4740692733438</v>
+        <v>589.4740692733434</v>
       </c>
       <c r="M28" t="n">
-        <v>888.3664240716623</v>
+        <v>888.3664240716619</v>
       </c>
       <c r="N28" t="n">
-        <v>1186.236145130346</v>
+        <v>1186.236145130345</v>
       </c>
       <c r="O28" t="n">
         <v>1447.436735166878</v>
       </c>
       <c r="P28" t="n">
-        <v>1651.362111803697</v>
+        <v>1651.362111803696</v>
       </c>
       <c r="Q28" t="n">
-        <v>1717.521166806989</v>
+        <v>1717.521166806988</v>
       </c>
       <c r="R28" t="n">
-        <v>1717.521166806989</v>
+        <v>1717.521166806988</v>
       </c>
       <c r="S28" t="n">
-        <v>1545.481589363226</v>
+        <v>1717.521166806988</v>
       </c>
       <c r="T28" t="n">
-        <v>1349.576606793418</v>
+        <v>1521.616184237179</v>
       </c>
       <c r="U28" t="n">
-        <v>1088.328400647662</v>
+        <v>1260.367978091422</v>
       </c>
       <c r="V28" t="n">
-        <v>861.5243450824601</v>
+        <v>1033.563922526221</v>
       </c>
       <c r="W28" t="n">
-        <v>599.9876076861849</v>
+        <v>772.0271851299451</v>
       </c>
       <c r="X28" t="n">
-        <v>399.878489428853</v>
+        <v>584.1921591921791</v>
       </c>
       <c r="Y28" t="n">
-        <v>399.878489428853</v>
+        <v>391.2800126893343</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,13 +6479,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>443.7037150485182</v>
+        <v>316.6838186313612</v>
       </c>
       <c r="C31" t="n">
-        <v>443.7037150485182</v>
+        <v>316.6838186313612</v>
       </c>
       <c r="D31" t="n">
-        <v>443.7037150485182</v>
+        <v>316.6838186313612</v>
       </c>
       <c r="E31" t="n">
-        <v>443.7037150485182</v>
+        <v>196.6511576896536</v>
       </c>
       <c r="F31" t="n">
-        <v>443.7037150485182</v>
+        <v>196.6511576896536</v>
       </c>
       <c r="G31" t="n">
-        <v>303.4088260090241</v>
+        <v>180.8712501976531</v>
       </c>
       <c r="H31" t="n">
-        <v>180.8712501976529</v>
+        <v>180.8712501976531</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>136.9253959553315</v>
+        <v>136.9253959553314</v>
       </c>
       <c r="K31" t="n">
-        <v>314.4364122310788</v>
+        <v>314.4364122310785</v>
       </c>
       <c r="L31" t="n">
-        <v>589.4740692733438</v>
+        <v>589.4740692733434</v>
       </c>
       <c r="M31" t="n">
-        <v>888.3664240716623</v>
+        <v>888.366424071662</v>
       </c>
       <c r="N31" t="n">
-        <v>1186.236145130346</v>
+        <v>1186.236145130345</v>
       </c>
       <c r="O31" t="n">
         <v>1447.436735166878</v>
       </c>
       <c r="P31" t="n">
-        <v>1651.362111803697</v>
+        <v>1651.362111803696</v>
       </c>
       <c r="Q31" t="n">
-        <v>1717.521166806989</v>
+        <v>1717.521166806988</v>
       </c>
       <c r="R31" t="n">
-        <v>1634.3264960095</v>
+        <v>1634.326496009498</v>
       </c>
       <c r="S31" t="n">
-        <v>1589.306814982891</v>
+        <v>1462.286918565736</v>
       </c>
       <c r="T31" t="n">
-        <v>1393.401832413083</v>
+        <v>1266.381935995927</v>
       </c>
       <c r="U31" t="n">
-        <v>1132.153626267327</v>
+        <v>1005.13372985017</v>
       </c>
       <c r="V31" t="n">
-        <v>905.3495707021252</v>
+        <v>778.3296742849685</v>
       </c>
       <c r="W31" t="n">
-        <v>643.8128333058501</v>
+        <v>516.7929368886932</v>
       </c>
       <c r="X31" t="n">
-        <v>443.7037150485182</v>
+        <v>316.6838186313612</v>
       </c>
       <c r="Y31" t="n">
-        <v>443.7037150485182</v>
+        <v>316.6838186313612</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6777,13 +6777,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
         <v>1247.466478653857</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1925.513372462138</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C35" t="n">
-        <v>1625.370946561767</v>
+        <v>1625.370946561769</v>
       </c>
       <c r="D35" t="n">
-        <v>1335.925338995057</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E35" t="n">
-        <v>1018.957177436854</v>
+        <v>1018.957177436856</v>
       </c>
       <c r="F35" t="n">
-        <v>676.7913636872898</v>
+        <v>676.79136368729</v>
       </c>
       <c r="G35" t="n">
         <v>329.485680192289</v>
       </c>
       <c r="H35" t="n">
-        <v>89.93481253402928</v>
+        <v>89.93481253402931</v>
       </c>
       <c r="I35" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J35" t="n">
-        <v>344.8139583742029</v>
+        <v>177.4083093538499</v>
       </c>
       <c r="K35" t="n">
-        <v>868.2168169432325</v>
+        <v>700.8111679228796</v>
       </c>
       <c r="L35" t="n">
-        <v>1156.336370582085</v>
+        <v>1402.415323966678</v>
       </c>
       <c r="M35" t="n">
-        <v>1508.594326144071</v>
+        <v>2199.691677686568</v>
       </c>
       <c r="N35" t="n">
-        <v>2130.341082210335</v>
+        <v>2995.236798790599</v>
       </c>
       <c r="O35" t="n">
-        <v>2836.36414323453</v>
+        <v>3424.363840884068</v>
       </c>
       <c r="P35" t="n">
-        <v>3401.264108490333</v>
+        <v>3670.683085050103</v>
       </c>
       <c r="Q35" t="n">
-        <v>3748.258696799036</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="R35" t="n">
-        <v>3807.485832605499</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S35" t="n">
-        <v>3742.012625862511</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T35" t="n">
-        <v>3600.244041813156</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U35" t="n">
-        <v>3415.44939017663</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V35" t="n">
-        <v>3153.206593873101</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W35" t="n">
-        <v>2869.258029643028</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X35" t="n">
-        <v>2564.612362421989</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y35" t="n">
-        <v>2243.293121486218</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>483.7389902965687</v>
       </c>
       <c r="F36" t="n">
-        <v>337.2044323234536</v>
+        <v>337.2044323234537</v>
       </c>
       <c r="G36" t="n">
-        <v>200.2777539276389</v>
+        <v>200.277753927639</v>
       </c>
       <c r="H36" t="n">
         <v>104.3328803593266</v>
       </c>
       <c r="I36" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J36" t="n">
-        <v>242.4709188044723</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K36" t="n">
-        <v>653.361187648985</v>
+        <v>528.5310626619803</v>
       </c>
       <c r="L36" t="n">
-        <v>900.1263155554491</v>
+        <v>1142.428132418869</v>
       </c>
       <c r="M36" t="n">
-        <v>1207.446448835411</v>
+        <v>1449.748265698831</v>
       </c>
       <c r="N36" t="n">
-        <v>1537.309076499444</v>
+        <v>1779.610893362863</v>
       </c>
       <c r="O36" t="n">
-        <v>1816.849141718141</v>
+        <v>2059.150958581561</v>
       </c>
       <c r="P36" t="n">
-        <v>2296.766701154948</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q36" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R36" t="n">
         <v>2602.506130567962</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>638.3928643026569</v>
+        <v>638.3928643026568</v>
       </c>
       <c r="C37" t="n">
-        <v>538.276772414791</v>
+        <v>538.2767724147909</v>
       </c>
       <c r="D37" t="n">
-        <v>456.9802240424963</v>
+        <v>456.9802240424962</v>
       </c>
       <c r="E37" t="n">
-        <v>377.8872215001443</v>
+        <v>377.8872215001442</v>
       </c>
       <c r="F37" t="n">
-        <v>299.817365042275</v>
+        <v>299.8173650422748</v>
       </c>
       <c r="G37" t="n">
-        <v>200.4621344021367</v>
+        <v>200.4621344021365</v>
       </c>
       <c r="H37" t="n">
-        <v>118.8642169901214</v>
+        <v>118.8642169901209</v>
       </c>
       <c r="I37" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J37" t="n">
         <v>155.9829803443641</v>
       </c>
       <c r="K37" t="n">
-        <v>373.6189558173194</v>
+        <v>373.6189558173198</v>
       </c>
       <c r="L37" t="n">
-        <v>688.7815720567929</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M37" t="n">
         <v>1027.79888605232</v>
@@ -7120,10 +7120,10 @@
         <v>1975.198453178346</v>
       </c>
       <c r="S37" t="n">
-        <v>1844.09853413394</v>
+        <v>1844.098534133939</v>
       </c>
       <c r="T37" t="n">
-        <v>1689.133209963487</v>
+        <v>1689.133209963486</v>
       </c>
       <c r="U37" t="n">
         <v>1468.824662217086</v>
@@ -7135,10 +7135,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X37" t="n">
-        <v>903.1937261963445</v>
+        <v>903.1937261963444</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.2212380928555</v>
+        <v>751.2212380928554</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1925.513372462137</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C38" t="n">
-        <v>1625.370946561766</v>
+        <v>1625.370946561769</v>
       </c>
       <c r="D38" t="n">
-        <v>1335.925338995057</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E38" t="n">
-        <v>1018.957177436854</v>
+        <v>1018.957177436856</v>
       </c>
       <c r="F38" t="n">
-        <v>676.7913636872872</v>
+        <v>676.79136368729</v>
       </c>
       <c r="G38" t="n">
         <v>329.485680192289</v>
       </c>
       <c r="H38" t="n">
-        <v>89.93481253402931</v>
+        <v>89.93481253402933</v>
       </c>
       <c r="I38" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J38" t="n">
-        <v>177.4083093538498</v>
+        <v>344.8139583742029</v>
       </c>
       <c r="K38" t="n">
-        <v>379.9072094774264</v>
+        <v>868.2168169432326</v>
       </c>
       <c r="L38" t="n">
-        <v>1081.511365521224</v>
+        <v>1156.336370582085</v>
       </c>
       <c r="M38" t="n">
-        <v>1878.787719241115</v>
+        <v>1508.594326144071</v>
       </c>
       <c r="N38" t="n">
-        <v>2674.332840345146</v>
+        <v>2130.341082210336</v>
       </c>
       <c r="O38" t="n">
-        <v>3380.355901369342</v>
+        <v>2836.364143234531</v>
       </c>
       <c r="P38" t="n">
-        <v>3626.675145535377</v>
+        <v>3401.264108490334</v>
       </c>
       <c r="Q38" t="n">
-        <v>3807.485832605499</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R38" t="n">
-        <v>3807.485832605499</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S38" t="n">
-        <v>3742.012625862511</v>
+        <v>3742.012625862514</v>
       </c>
       <c r="T38" t="n">
-        <v>3600.244041813156</v>
+        <v>3600.244041813159</v>
       </c>
       <c r="U38" t="n">
-        <v>3415.44939017663</v>
+        <v>3415.449390176633</v>
       </c>
       <c r="V38" t="n">
-        <v>3153.206593873101</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W38" t="n">
-        <v>2869.258029643027</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X38" t="n">
-        <v>2564.612362421989</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y38" t="n">
-        <v>2243.293121486218</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>483.7389902965687</v>
       </c>
       <c r="F39" t="n">
-        <v>337.2044323234536</v>
+        <v>337.2044323234537</v>
       </c>
       <c r="G39" t="n">
-        <v>200.2777539276389</v>
+        <v>200.277753927639</v>
       </c>
       <c r="H39" t="n">
         <v>104.3328803593266</v>
       </c>
       <c r="I39" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J39" t="n">
-        <v>242.4709188044723</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K39" t="n">
-        <v>653.361187648985</v>
+        <v>441.660956221874</v>
       </c>
       <c r="L39" t="n">
-        <v>900.1263155554491</v>
+        <v>688.4260841283381</v>
       </c>
       <c r="M39" t="n">
-        <v>1207.446448835411</v>
+        <v>995.7462174082998</v>
       </c>
       <c r="N39" t="n">
-        <v>1537.309076499444</v>
+        <v>1325.608845072333</v>
       </c>
       <c r="O39" t="n">
-        <v>1816.849141718141</v>
+        <v>1995.072606374992</v>
       </c>
       <c r="P39" t="n">
-        <v>2296.766701154948</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q39" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R39" t="n">
         <v>2602.506130567962</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>638.392864302657</v>
+        <v>638.3928643026572</v>
       </c>
       <c r="C40" t="n">
-        <v>538.2767724147911</v>
+        <v>538.2767724147914</v>
       </c>
       <c r="D40" t="n">
-        <v>456.9802240424965</v>
+        <v>456.9802240424967</v>
       </c>
       <c r="E40" t="n">
-        <v>377.8872215001444</v>
+        <v>377.8872215001446</v>
       </c>
       <c r="F40" t="n">
-        <v>299.8173650422751</v>
+        <v>299.8173650422753</v>
       </c>
       <c r="G40" t="n">
-        <v>200.4621344021368</v>
+        <v>200.4621344021369</v>
       </c>
       <c r="H40" t="n">
-        <v>118.8642169901214</v>
+        <v>118.8642169901213</v>
       </c>
       <c r="I40" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J40" t="n">
-        <v>155.982980344364</v>
+        <v>155.9829803443641</v>
       </c>
       <c r="K40" t="n">
-        <v>373.6189558173197</v>
+        <v>373.6189558173199</v>
       </c>
       <c r="L40" t="n">
-        <v>688.7815720567933</v>
+        <v>688.7815720567935</v>
       </c>
       <c r="M40" t="n">
-        <v>1027.79888605232</v>
+        <v>1027.798886052321</v>
       </c>
       <c r="N40" t="n">
-        <v>1365.793566308212</v>
+        <v>1365.793566308213</v>
       </c>
       <c r="O40" t="n">
-        <v>1667.119115541953</v>
+        <v>1667.119115541954</v>
       </c>
       <c r="P40" t="n">
-        <v>1911.16945137598</v>
+        <v>1911.169451375981</v>
       </c>
       <c r="Q40" t="n">
-        <v>2017.45346557648</v>
+        <v>2017.453465576481</v>
       </c>
       <c r="R40" t="n">
         <v>1975.198453178347</v>
@@ -7360,7 +7360,7 @@
         <v>1844.098534133941</v>
       </c>
       <c r="T40" t="n">
-        <v>1689.133209963488</v>
+        <v>1689.133209963487</v>
       </c>
       <c r="U40" t="n">
         <v>1468.824662217087</v>
@@ -7375,7 +7375,7 @@
         <v>903.1937261963451</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.2212380928556</v>
+        <v>751.2212380928559</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1925.513372462138</v>
+        <v>1925.513372462139</v>
       </c>
       <c r="C41" t="n">
-        <v>1625.370946561768</v>
+        <v>1625.370946561769</v>
       </c>
       <c r="D41" t="n">
-        <v>1335.925338995058</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E41" t="n">
-        <v>1018.957177436855</v>
+        <v>1018.957177436856</v>
       </c>
       <c r="F41" t="n">
-        <v>676.7913636872887</v>
+        <v>676.7913636872897</v>
       </c>
       <c r="G41" t="n">
-        <v>329.4856801922879</v>
+        <v>329.4856801922889</v>
       </c>
       <c r="H41" t="n">
-        <v>89.93481253402928</v>
+        <v>89.93481253402931</v>
       </c>
       <c r="I41" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J41" t="n">
         <v>344.8139583742029</v>
       </c>
       <c r="K41" t="n">
-        <v>868.2168169432325</v>
+        <v>547.3128584977795</v>
       </c>
       <c r="L41" t="n">
-        <v>1415.511460712182</v>
+        <v>835.4324121366317</v>
       </c>
       <c r="M41" t="n">
-        <v>1767.769416274168</v>
+        <v>1632.708765856522</v>
       </c>
       <c r="N41" t="n">
-        <v>2130.341082210335</v>
+        <v>2428.253886960553</v>
       </c>
       <c r="O41" t="n">
-        <v>2836.36414323453</v>
+        <v>2836.364143234531</v>
       </c>
       <c r="P41" t="n">
-        <v>3401.264108490333</v>
+        <v>3401.264108490334</v>
       </c>
       <c r="Q41" t="n">
-        <v>3748.258696799036</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R41" t="n">
-        <v>3807.485832605499</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S41" t="n">
-        <v>3742.012625862511</v>
+        <v>3742.012625862513</v>
       </c>
       <c r="T41" t="n">
-        <v>3600.244041813156</v>
+        <v>3600.244041813158</v>
       </c>
       <c r="U41" t="n">
-        <v>3415.449390176631</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V41" t="n">
-        <v>3153.206593873101</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W41" t="n">
-        <v>2869.258029643028</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X41" t="n">
-        <v>2564.612362421989</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y41" t="n">
-        <v>2243.293121486219</v>
+        <v>2243.29312148622</v>
       </c>
     </row>
     <row r="42">
@@ -7476,19 +7476,19 @@
         <v>483.7389902965687</v>
       </c>
       <c r="F42" t="n">
-        <v>337.2044323234536</v>
+        <v>337.2044323234537</v>
       </c>
       <c r="G42" t="n">
-        <v>200.2777539276389</v>
+        <v>200.277753927639</v>
       </c>
       <c r="H42" t="n">
         <v>104.3328803593266</v>
       </c>
       <c r="I42" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J42" t="n">
-        <v>242.4709188044723</v>
+        <v>242.4709188044724</v>
       </c>
       <c r="K42" t="n">
         <v>653.361187648985</v>
@@ -7506,10 +7506,10 @@
         <v>1816.849141718141</v>
       </c>
       <c r="P42" t="n">
-        <v>2296.766701154948</v>
+        <v>2307.396713252248</v>
       </c>
       <c r="Q42" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R42" t="n">
         <v>2602.506130567962</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>638.3928643026571</v>
+        <v>638.3928643026568</v>
       </c>
       <c r="C43" t="n">
-        <v>538.2767724147913</v>
+        <v>538.2767724147909</v>
       </c>
       <c r="D43" t="n">
-        <v>456.9802240424966</v>
+        <v>456.9802240424963</v>
       </c>
       <c r="E43" t="n">
-        <v>377.8872215001445</v>
+        <v>377.8872215001442</v>
       </c>
       <c r="F43" t="n">
-        <v>299.8173650422752</v>
+        <v>299.8173650422749</v>
       </c>
       <c r="G43" t="n">
-        <v>200.4621344021368</v>
+        <v>200.4621344021366</v>
       </c>
       <c r="H43" t="n">
-        <v>118.8642169901214</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I43" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J43" t="n">
-        <v>155.9829803443641</v>
+        <v>155.982980344364</v>
       </c>
       <c r="K43" t="n">
-        <v>373.6189558173198</v>
+        <v>373.6189558173197</v>
       </c>
       <c r="L43" t="n">
-        <v>688.7815720567932</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M43" t="n">
         <v>1027.79888605232</v>
@@ -7603,16 +7603,16 @@
         <v>1468.824662217086</v>
       </c>
       <c r="V43" t="n">
-        <v>1282.960265051241</v>
+        <v>1282.96026505124</v>
       </c>
       <c r="W43" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X43" t="n">
-        <v>903.1937261963448</v>
+        <v>903.1937261963444</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.2212380928557</v>
+        <v>751.2212380928554</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1925.51337246214</v>
+        <v>1925.513372462138</v>
       </c>
       <c r="C44" t="n">
-        <v>1625.370946561769</v>
+        <v>1625.370946561768</v>
       </c>
       <c r="D44" t="n">
-        <v>1335.92533899506</v>
+        <v>1335.925338995058</v>
       </c>
       <c r="E44" t="n">
-        <v>1018.957177436856</v>
+        <v>1018.957177436855</v>
       </c>
       <c r="F44" t="n">
-        <v>676.7913636872897</v>
+        <v>676.7913636872888</v>
       </c>
       <c r="G44" t="n">
-        <v>329.4856801922889</v>
+        <v>329.485680192288</v>
       </c>
       <c r="H44" t="n">
-        <v>89.93481253402925</v>
+        <v>89.93481253402837</v>
       </c>
       <c r="I44" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J44" t="n">
         <v>344.8139583742029</v>
       </c>
       <c r="K44" t="n">
-        <v>868.2168169432325</v>
+        <v>868.2168169432326</v>
       </c>
       <c r="L44" t="n">
-        <v>1415.511460712182</v>
+        <v>1347.485242004396</v>
       </c>
       <c r="M44" t="n">
-        <v>1767.769416274168</v>
+        <v>2144.761595724287</v>
       </c>
       <c r="N44" t="n">
-        <v>2130.341082210335</v>
+        <v>2507.333261660453</v>
       </c>
       <c r="O44" t="n">
-        <v>2836.36414323453</v>
+        <v>2836.364143234531</v>
       </c>
       <c r="P44" t="n">
-        <v>3401.264108490333</v>
+        <v>3401.264108490334</v>
       </c>
       <c r="Q44" t="n">
-        <v>3748.258696799036</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R44" t="n">
-        <v>3807.485832605499</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S44" t="n">
-        <v>3742.012625862511</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T44" t="n">
-        <v>3600.244041813156</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U44" t="n">
-        <v>3415.449390176631</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V44" t="n">
-        <v>3153.206593873103</v>
+        <v>3153.206593873102</v>
       </c>
       <c r="W44" t="n">
-        <v>2869.25802964303</v>
+        <v>2869.258029643029</v>
       </c>
       <c r="X44" t="n">
-        <v>2564.612362421991</v>
+        <v>2564.61236242199</v>
       </c>
       <c r="Y44" t="n">
-        <v>2243.29312148622</v>
+        <v>2243.293121486219</v>
       </c>
     </row>
     <row r="45">
@@ -7713,19 +7713,19 @@
         <v>483.7389902965687</v>
       </c>
       <c r="F45" t="n">
-        <v>337.2044323234536</v>
+        <v>337.2044323234537</v>
       </c>
       <c r="G45" t="n">
-        <v>200.2777539276389</v>
+        <v>200.277753927639</v>
       </c>
       <c r="H45" t="n">
         <v>104.3328803593266</v>
       </c>
       <c r="I45" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J45" t="n">
-        <v>242.4709188044723</v>
+        <v>242.4709188044724</v>
       </c>
       <c r="K45" t="n">
         <v>653.361187648985</v>
@@ -7743,10 +7743,10 @@
         <v>1816.849141718141</v>
       </c>
       <c r="P45" t="n">
-        <v>2296.766701154948</v>
+        <v>2307.396713252248</v>
       </c>
       <c r="Q45" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R45" t="n">
         <v>2602.506130567962</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>638.3928643026571</v>
+        <v>638.3928643026567</v>
       </c>
       <c r="C46" t="n">
-        <v>538.2767724147913</v>
+        <v>538.2767724147908</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9802240424966</v>
+        <v>456.9802240424962</v>
       </c>
       <c r="E46" t="n">
-        <v>377.8872215001446</v>
+        <v>377.8872215001442</v>
       </c>
       <c r="F46" t="n">
-        <v>299.8173650422754</v>
+        <v>299.8173650422749</v>
       </c>
       <c r="G46" t="n">
-        <v>200.4621344021371</v>
+        <v>200.4621344021366</v>
       </c>
       <c r="H46" t="n">
         <v>118.8642169901214</v>
       </c>
       <c r="I46" t="n">
-        <v>76.14971665210999</v>
+        <v>76.14971665211002</v>
       </c>
       <c r="J46" t="n">
-        <v>155.982980344364</v>
+        <v>155.9829803443641</v>
       </c>
       <c r="K46" t="n">
-        <v>373.6189558173197</v>
+        <v>373.6189558173198</v>
       </c>
       <c r="L46" t="n">
-        <v>688.7815720567933</v>
+        <v>688.7815720567934</v>
       </c>
       <c r="M46" t="n">
-        <v>1027.79888605232</v>
+        <v>1027.798886052321</v>
       </c>
       <c r="N46" t="n">
-        <v>1365.793566308212</v>
+        <v>1365.793566308213</v>
       </c>
       <c r="O46" t="n">
         <v>1667.119115541954</v>
@@ -7831,7 +7831,7 @@
         <v>1975.198453178347</v>
       </c>
       <c r="S46" t="n">
-        <v>1844.098534133941</v>
+        <v>1844.09853413394</v>
       </c>
       <c r="T46" t="n">
         <v>1689.133209963487</v>
@@ -7840,16 +7840,16 @@
         <v>1468.824662217086</v>
       </c>
       <c r="V46" t="n">
-        <v>1282.960265051241</v>
+        <v>1282.96026505124</v>
       </c>
       <c r="W46" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X46" t="n">
-        <v>903.1937261963446</v>
+        <v>903.1937261963442</v>
       </c>
       <c r="Y46" t="n">
-        <v>751.2212380928557</v>
+        <v>751.2212380928553</v>
       </c>
     </row>
   </sheetData>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>142.6317767593719</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>274.3455134968399</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273546</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
-        <v>124.6736186875539</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,22 +8298,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>191.7010992571521</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>428.4457249022623</v>
+        <v>428.4457249022616</v>
       </c>
       <c r="N6" t="n">
-        <v>416.4642451451486</v>
+        <v>111.7063141165211</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>100.1133495643968</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>117.3465536426284</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776761</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>272.8719470256808</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987297522</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>73.53204524670085</v>
+        <v>124.340078086318</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9954,10 +9954,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>176.7176547498455</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>169.2863157167183</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>261.7930203334315</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>101.1072328478697</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>5.891030169484338</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>261.7930203334324</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.4524641562879</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>176.717654749845</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>261.7930203334315</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>79.87815626252541</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,16 +11300,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>261.7930203334315</v>
+        <v>193.0796681033449</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.4192454642734</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>60.99136496557922</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>47.37262396003791</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>35.71390506302871</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,16 +23701,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>182.9501206228551</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>4.535448817002918</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,16 +23938,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>75.26883114644357</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642721</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.98990566424185</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338677</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>36.51615797628574</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518782</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>152.2303518676587</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>139.6451927843492</v>
+        <v>139.6451927843494</v>
       </c>
       <c r="D28" t="n">
-        <v>25.50887791830307</v>
+        <v>121.0138447039339</v>
       </c>
       <c r="E28" t="n">
-        <v>118.8323343322906</v>
+        <v>118.8323343322907</v>
       </c>
       <c r="F28" t="n">
-        <v>117.8194197086526</v>
+        <v>117.8194197086528</v>
       </c>
       <c r="G28" t="n">
-        <v>138.891940149099</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>121.3122000532577</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>82.81761714999354</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>82.3627240895142</v>
+        <v>82.36272408951433</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>170.3191816693248</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>12.15135139637034</v>
       </c>
       <c r="Y28" t="n">
-        <v>190.9830250378162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>152.2303518676587</v>
+        <v>152.2303518676588</v>
       </c>
       <c r="C31" t="n">
-        <v>139.6451927843492</v>
+        <v>139.6451927843494</v>
       </c>
       <c r="D31" t="n">
-        <v>121.0138447039338</v>
+        <v>121.0138447039339</v>
       </c>
       <c r="E31" t="n">
-        <v>118.8323343322906</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>117.8194197086526</v>
+        <v>117.8194197086528</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>123.2698317320184</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.3122000532577</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>125.7496974529823</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>190.9830250378162</v>
+        <v>190.9830250378163</v>
       </c>
     </row>
     <row r="32">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>82104.17698642836</v>
+      </c>
+      <c r="C2" t="n">
         <v>82104.17698642833</v>
       </c>
-      <c r="C2" t="n">
-        <v>82104.1769864283</v>
-      </c>
       <c r="D2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="E2" t="n">
+        <v>78205.81194754172</v>
+      </c>
+      <c r="F2" t="n">
+        <v>78205.81194754173</v>
+      </c>
+      <c r="G2" t="n">
         <v>78205.81194754176</v>
       </c>
-      <c r="F2" t="n">
-        <v>78205.81194754175</v>
-      </c>
-      <c r="G2" t="n">
-        <v>78205.81194754179</v>
-      </c>
       <c r="H2" t="n">
-        <v>78205.81194754173</v>
+        <v>78205.81194754178</v>
       </c>
       <c r="I2" t="n">
         <v>78205.81194754173</v>
       </c>
       <c r="J2" t="n">
-        <v>79785.11970829785</v>
+        <v>79785.11970829783</v>
       </c>
       <c r="K2" t="n">
-        <v>79785.11970829783</v>
+        <v>79785.11970829782</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642828</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.1769864283</v>
       </c>
       <c r="N2" t="n">
         <v>82104.17698642831</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642841</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.1769864283</v>
+        <v>82104.17698642831</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.341446813</v>
+        <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>60975.9255503897</v>
+        <v>60975.92555038832</v>
       </c>
       <c r="D3" t="n">
-        <v>359462.5173298095</v>
+        <v>359462.5173298109</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.108923129322648e-09</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94335.99752256206</v>
+        <v>94335.99752256184</v>
       </c>
       <c r="K3" t="n">
-        <v>14177.10853800631</v>
+        <v>14177.10853800612</v>
       </c>
       <c r="L3" t="n">
-        <v>119246.0112699054</v>
+        <v>119246.0112699058</v>
       </c>
       <c r="M3" t="n">
-        <v>69175.08933762896</v>
+        <v>69175.08933762902</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>22081.30265142294</v>
+        <v>22081.30265142277</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316926.9684369122</v>
+        <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>299668.3554259905</v>
+        <v>299668.3554259909</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316558</v>
       </c>
       <c r="F4" t="n">
         <v>43561.42148316557</v>
       </c>
       <c r="G4" t="n">
-        <v>43561.42148316548</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="H4" t="n">
+        <v>43561.42148316544</v>
+      </c>
+      <c r="I4" t="n">
         <v>43561.42148316555</v>
       </c>
-      <c r="I4" t="n">
-        <v>43561.42148316557</v>
-      </c>
       <c r="J4" t="n">
-        <v>52643.73274026386</v>
+        <v>52643.7327402638</v>
       </c>
       <c r="K4" t="n">
-        <v>52643.73274026391</v>
+        <v>52643.7327402638</v>
       </c>
       <c r="L4" t="n">
-        <v>65980.20872448604</v>
+        <v>65980.20872448602</v>
       </c>
       <c r="M4" t="n">
-        <v>99837.12979766791</v>
+        <v>99837.12979766788</v>
       </c>
       <c r="N4" t="n">
-        <v>99837.12979766792</v>
+        <v>99837.12979766786</v>
       </c>
       <c r="O4" t="n">
         <v>99837.1297976678</v>
       </c>
       <c r="P4" t="n">
-        <v>99837.12979766789</v>
+        <v>99837.12979766788</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>55564.27390978106</v>
+        <v>55564.27390978095</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,19 +26479,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>94307.76723946973</v>
+        <v>94307.7672394697</v>
       </c>
       <c r="K5" t="n">
         <v>94307.7672394697</v>
@@ -26503,7 +26503,7 @@
         <v>81703.90096581174</v>
       </c>
       <c r="N5" t="n">
-        <v>81703.90096581173</v>
+        <v>81703.90096581174</v>
       </c>
       <c r="O5" t="n">
         <v>81703.90096581174</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-412297.5124140771</v>
+        <v>-412297.512414077</v>
       </c>
       <c r="C6" t="n">
-        <v>-334104.377899733</v>
+        <v>-334104.3778997318</v>
       </c>
       <c r="D6" t="n">
-        <v>-552424.0147992204</v>
+        <v>-552424.0147992218</v>
       </c>
       <c r="E6" t="n">
-        <v>-582502.9719612366</v>
+        <v>-582600.4310872086</v>
       </c>
       <c r="F6" t="n">
-        <v>-57342.93548434046</v>
+        <v>-57440.39461031262</v>
       </c>
       <c r="G6" t="n">
-        <v>-57342.93548434027</v>
+        <v>-57440.39461031258</v>
       </c>
       <c r="H6" t="n">
-        <v>-57342.93548434045</v>
+        <v>-57440.39461031358</v>
       </c>
       <c r="I6" t="n">
-        <v>-57342.93548434047</v>
+        <v>-57440.39461031161</v>
       </c>
       <c r="J6" t="n">
-        <v>-161502.3777939978</v>
+        <v>-161560.3542259508</v>
       </c>
       <c r="K6" t="n">
-        <v>-81343.48880944209</v>
+        <v>-81401.46524139505</v>
       </c>
       <c r="L6" t="n">
-        <v>-200837.1488279885</v>
+        <v>-200837.1488279889</v>
       </c>
       <c r="M6" t="n">
-        <v>-168611.9431146803</v>
+        <v>-168611.9431146804</v>
       </c>
       <c r="N6" t="n">
-        <v>-99436.85377705134</v>
+        <v>-99436.85377705129</v>
       </c>
       <c r="O6" t="n">
-        <v>-121518.1564284741</v>
+        <v>-121518.1564284739</v>
       </c>
       <c r="P6" t="n">
-        <v>-99436.85377705134</v>
+        <v>-99436.85377705131</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="K2" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427844</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26735,37 +26735,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>82.43998649669119</v>
+        <v>82.43998649669007</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>331.2414836209406</v>
+        <v>331.2414836209394</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26820,16 +26820,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>951.8714581513748</v>
+        <v>951.8714581513751</v>
       </c>
       <c r="N4" t="n">
-        <v>951.8714581513748</v>
+        <v>951.8714581513751</v>
       </c>
       <c r="O4" t="n">
-        <v>951.8714581513748</v>
+        <v>951.8714581513751</v>
       </c>
       <c r="P4" t="n">
-        <v>951.8714581513748</v>
+        <v>951.8714581513751</v>
       </c>
     </row>
   </sheetData>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>27.60162831427866</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>40.53026181536198</v>
+        <v>40.53026181536218</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.60162831427868</v>
+        <v>27.60162831427846</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>47.41872577756585</v>
+        <v>47.41872577756477</v>
       </c>
       <c r="D3" t="n">
-        <v>295.3036777203955</v>
+        <v>295.3036777203965</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-5.208033121338779e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>55.08496991858518</v>
+        <v>55.08496991858396</v>
       </c>
       <c r="D4" t="n">
-        <v>343.0457891336148</v>
+        <v>343.0457891336162</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023556</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>55.08496991858473</v>
+        <v>55.08496991858396</v>
       </c>
       <c r="L4" t="n">
-        <v>343.0457891336151</v>
+        <v>343.0457891336162</v>
       </c>
       <c r="M4" t="n">
-        <v>277.5841853968193</v>
+        <v>277.5841853968195</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>27.60162831427866</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>55.08496991858518</v>
+        <v>55.08496991858396</v>
       </c>
       <c r="L4" t="n">
-        <v>343.0457891336148</v>
+        <v>343.0457891336162</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>89.11637806865207</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>214.5088596299805</v>
+        <v>118.3204300933598</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699064</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>139.0054348249641</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611361</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>68.59095375023963</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,10 +27512,10 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>87.04888155108284</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>4.70078623405945</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>111.3918043887131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>91.87353407258144</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>23.44155799974232</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>50.68888645132239</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.5441982003925</v>
       </c>
       <c r="H5" t="n">
-        <v>336.0806774455792</v>
+        <v>336.0806774455793</v>
       </c>
       <c r="I5" t="n">
-        <v>197.6989344772855</v>
+        <v>197.6989344772857</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>129.0507428586461</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>201.4679039890862</v>
       </c>
       <c r="T5" t="n">
-        <v>221.6450715103052</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3191395453451</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>17.99948509647362</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>54.99645503511294</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>137.1661934186706</v>
       </c>
       <c r="H6" t="n">
-        <v>110.522870177386</v>
+        <v>16.44557180457156</v>
       </c>
       <c r="I6" t="n">
-        <v>83.29140743632993</v>
+        <v>83.29140743633</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>89.14820727672652</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>168.3894603225785</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.4499895666097</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9297160451498</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>167.0697555571617</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.842317087727</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>160.9054297731156</v>
@@ -27795,7 +27795,7 @@
         <v>150.9797950037984</v>
       </c>
       <c r="J7" t="n">
-        <v>82.84875757593889</v>
+        <v>82.84875757593903</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>73.71360529069402</v>
+        <v>73.71360529069419</v>
       </c>
       <c r="R7" t="n">
         <v>170.6089950949952</v>
@@ -27831,7 +27831,7 @@
         <v>286.3109205053601</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>189.4424982678491</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>155.2940123070151</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>262.0406658592146</v>
       </c>
       <c r="D8" t="n">
-        <v>79.67063692337479</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>85.8721770191151</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>20.33532920387802</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.169834245014017e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-8.997529158509207e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="C28" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="D28" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="E28" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="F28" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="G28" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="H28" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="I28" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="J28" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="K28" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="L28" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="M28" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="N28" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="O28" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="P28" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="Q28" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="R28" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="S28" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="T28" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="U28" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="V28" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="W28" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="X28" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427845</v>
       </c>
       <c r="Y28" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427845</v>
       </c>
     </row>
     <row r="29">
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427844</v>
       </c>
       <c r="C31" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427844</v>
       </c>
       <c r="D31" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427844</v>
       </c>
       <c r="E31" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427844</v>
       </c>
       <c r="F31" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427844</v>
       </c>
       <c r="G31" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427844</v>
       </c>
       <c r="H31" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427844</v>
       </c>
       <c r="I31" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427844</v>
       </c>
       <c r="J31" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427844</v>
       </c>
       <c r="K31" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427844</v>
       </c>
       <c r="L31" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427844</v>
       </c>
       <c r="M31" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427844</v>
       </c>
       <c r="N31" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427844</v>
       </c>
       <c r="O31" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427844</v>
       </c>
       <c r="P31" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427844</v>
       </c>
       <c r="Q31" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427844</v>
       </c>
       <c r="R31" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427844</v>
       </c>
       <c r="S31" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427844</v>
       </c>
       <c r="T31" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427844</v>
       </c>
       <c r="U31" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427844</v>
       </c>
       <c r="V31" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427844</v>
       </c>
       <c r="W31" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427844</v>
       </c>
       <c r="X31" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427844</v>
       </c>
       <c r="Y31" t="n">
-        <v>27.60162831427861</v>
+        <v>27.60162831427844</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>68.13189012964065</v>
       </c>
       <c r="F35" t="n">
-        <v>68.13189012964278</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G35" t="n">
         <v>68.13189012964065</v>
@@ -30043,7 +30043,7 @@
         <v>68.13189012964065</v>
       </c>
       <c r="V35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964182</v>
       </c>
       <c r="W35" t="n">
         <v>68.13189012964065</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G38" t="n">
-        <v>68.13189012964324</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296419</v>
       </c>
       <c r="T38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y38" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30715,7 +30715,7 @@
         <v>68.13189012964067</v>
       </c>
       <c r="I44" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964158</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30754,7 +30754,7 @@
         <v>68.13189012964067</v>
       </c>
       <c r="V44" t="n">
-        <v>68.13189012964227</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W44" t="n">
         <v>68.13189012964067</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677233</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587038</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779991</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358773</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192331</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689049</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650263</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164377</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174389</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394052</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587926</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3314170311424769</v>
+        <v>0.3314170311424724</v>
       </c>
       <c r="H5" t="n">
-        <v>3.394124670187892</v>
+        <v>3.394124670187846</v>
       </c>
       <c r="I5" t="n">
-        <v>12.77695509312035</v>
+        <v>12.77695509312018</v>
       </c>
       <c r="J5" t="n">
-        <v>28.12860624692883</v>
+        <v>28.12860624692844</v>
       </c>
       <c r="K5" t="n">
-        <v>42.15748917518988</v>
+        <v>42.1574891751893</v>
       </c>
       <c r="L5" t="n">
-        <v>52.30009314201646</v>
+        <v>52.30009314201575</v>
       </c>
       <c r="M5" t="n">
-        <v>58.19393076959649</v>
+        <v>58.1939307695957</v>
       </c>
       <c r="N5" t="n">
-        <v>59.13556940933006</v>
+        <v>59.13556940932925</v>
       </c>
       <c r="O5" t="n">
-        <v>55.84004130590705</v>
+        <v>55.84004130590629</v>
       </c>
       <c r="P5" t="n">
-        <v>47.65818334957714</v>
+        <v>47.65818334957649</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.78931092178718</v>
+        <v>35.78931092178669</v>
       </c>
       <c r="R5" t="n">
-        <v>20.81837508250363</v>
+        <v>20.81837508250335</v>
       </c>
       <c r="S5" t="n">
-        <v>7.5521655971592</v>
+        <v>7.552165597159097</v>
       </c>
       <c r="T5" t="n">
-        <v>1.450778053826193</v>
+        <v>1.450778053826174</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02651336249139815</v>
+        <v>0.02651336249139779</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1773237445400528</v>
+        <v>0.1773237445400503</v>
       </c>
       <c r="H6" t="n">
-        <v>1.71257405911051</v>
+        <v>1.712574059110487</v>
       </c>
       <c r="I6" t="n">
-        <v>6.10522541508515</v>
+        <v>6.105225415085068</v>
       </c>
       <c r="J6" t="n">
-        <v>16.75320518042665</v>
+        <v>16.75320518042642</v>
       </c>
       <c r="K6" t="n">
-        <v>28.63389606461019</v>
+        <v>28.6338960646098</v>
       </c>
       <c r="L6" t="n">
-        <v>38.50180690111979</v>
+        <v>38.50180690111927</v>
       </c>
       <c r="M6" t="n">
-        <v>44.9297926406967</v>
+        <v>44.92979264069608</v>
       </c>
       <c r="N6" t="n">
-        <v>46.11895055912539</v>
+        <v>46.11895055912476</v>
       </c>
       <c r="O6" t="n">
-        <v>42.18982969326422</v>
+        <v>42.18982969326364</v>
       </c>
       <c r="P6" t="n">
-        <v>33.86105784993341</v>
+        <v>33.86105784993295</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.6352204433934</v>
+        <v>22.6352204433931</v>
       </c>
       <c r="R6" t="n">
-        <v>11.00962687591661</v>
+        <v>11.00962687591646</v>
       </c>
       <c r="S6" t="n">
-        <v>3.293710781259311</v>
+        <v>3.293710781259266</v>
       </c>
       <c r="T6" t="n">
-        <v>0.714739128211879</v>
+        <v>0.7147391282118692</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01166603582500348</v>
+        <v>0.01166603582500332</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1486622707317382</v>
+        <v>0.1486622707317362</v>
       </c>
       <c r="H7" t="n">
-        <v>1.321742734324</v>
+        <v>1.321742734323982</v>
       </c>
       <c r="I7" t="n">
-        <v>4.47067992345991</v>
+        <v>4.47067992345985</v>
       </c>
       <c r="J7" t="n">
-        <v>10.51042254073389</v>
+        <v>10.51042254073375</v>
       </c>
       <c r="K7" t="n">
-        <v>17.27185290865103</v>
+        <v>17.2718529086508</v>
       </c>
       <c r="L7" t="n">
-        <v>22.10202523224406</v>
+        <v>22.10202523224376</v>
       </c>
       <c r="M7" t="n">
-        <v>23.30348667479419</v>
+        <v>23.30348667479388</v>
       </c>
       <c r="N7" t="n">
-        <v>22.74938184752137</v>
+        <v>22.74938184752106</v>
       </c>
       <c r="O7" t="n">
-        <v>21.01273623033697</v>
+        <v>21.01273623033668</v>
       </c>
       <c r="P7" t="n">
-        <v>17.98002590740949</v>
+        <v>17.98002590740925</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.44843796100037</v>
+        <v>12.4484379610002</v>
       </c>
       <c r="R7" t="n">
-        <v>6.684396282174336</v>
+        <v>6.684396282174244</v>
       </c>
       <c r="S7" t="n">
-        <v>2.590777936297655</v>
+        <v>2.59077793629762</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6351933385810631</v>
+        <v>0.6351933385810544</v>
       </c>
       <c r="U7" t="n">
-        <v>0.008108851130822093</v>
+        <v>0.008108851130821982</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32081,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32090,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>16.95427887837176</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>151.2980666667449</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>16.17931689231631</v>
+        <v>16.17931689231592</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2130507013741</v>
+        <v>146.2130507013735</v>
       </c>
       <c r="L5" t="n">
-        <v>234.1948927224797</v>
+        <v>234.194892722479</v>
       </c>
       <c r="M5" t="n">
-        <v>277.3612310351563</v>
+        <v>277.3612310351555</v>
       </c>
       <c r="N5" t="n">
-        <v>267.0694302247233</v>
+        <v>267.0694302247225</v>
       </c>
       <c r="O5" t="n">
-        <v>206.5420111469657</v>
+        <v>206.5420111469649</v>
       </c>
       <c r="P5" t="n">
-        <v>138.2238957657902</v>
+        <v>138.2238957657896</v>
       </c>
       <c r="Q5" t="n">
-        <v>25.79861170724237</v>
+        <v>25.79861170724188</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>16.0066138541688</v>
+        <v>16.00661385416857</v>
       </c>
       <c r="K6" t="n">
-        <v>155.2576941028298</v>
+        <v>155.2576941028294</v>
       </c>
       <c r="L6" t="n">
-        <v>91.64852637839769</v>
+        <v>270.7877724247043</v>
       </c>
       <c r="M6" t="n">
-        <v>331.2414836209406</v>
+        <v>331.2414836209394</v>
       </c>
       <c r="N6" t="n">
-        <v>331.2414836209406</v>
+        <v>26.48355259231257</v>
       </c>
       <c r="O6" t="n">
-        <v>293.4559045255493</v>
+        <v>293.4559045255487</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>218.3494190755399</v>
       </c>
       <c r="Q6" t="n">
-        <v>92.73073409322099</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>49.6920504925602</v>
+        <v>49.6920504925599</v>
       </c>
       <c r="M7" t="n">
-        <v>62.88736363663478</v>
+        <v>62.88736363663446</v>
       </c>
       <c r="N7" t="n">
-        <v>66.88155422674996</v>
+        <v>66.88155422674966</v>
       </c>
       <c r="O7" t="n">
-        <v>45.59786414437664</v>
+        <v>45.59786414437636</v>
       </c>
       <c r="P7" t="n">
-        <v>15.25858517230298</v>
+        <v>15.25858517230273</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337003</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
         <v>570.6060255109123</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>522.129651981705</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349123</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490697</v>
       </c>
       <c r="K21" t="n">
-        <v>224.1074838346401</v>
+        <v>274.9155166742578</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594841</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178385</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315253</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850745</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556569</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299108</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056035</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36525,16 +36525,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>425.9753597058697</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>40.10939847984412</v>
+        <v>40.10939847984398</v>
       </c>
       <c r="K28" t="n">
-        <v>179.3040568441891</v>
+        <v>179.304056844189</v>
       </c>
       <c r="L28" t="n">
-        <v>277.8158151942071</v>
+        <v>277.815815194207</v>
       </c>
       <c r="M28" t="n">
-        <v>301.9114694932512</v>
+        <v>301.911469493251</v>
       </c>
       <c r="N28" t="n">
-        <v>300.8785061198822</v>
+        <v>300.8785061198821</v>
       </c>
       <c r="O28" t="n">
-        <v>263.8389798348815</v>
+        <v>263.8389798348813</v>
       </c>
       <c r="P28" t="n">
-        <v>205.9852289260793</v>
+        <v>205.9852289260792</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.82732828615335</v>
+        <v>66.8273282861532</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>257.2993485017925</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>40.10939847984412</v>
+        <v>40.10939847984397</v>
       </c>
       <c r="K31" t="n">
-        <v>179.3040568441891</v>
+        <v>179.304056844189</v>
       </c>
       <c r="L31" t="n">
-        <v>277.8158151942071</v>
+        <v>277.815815194207</v>
       </c>
       <c r="M31" t="n">
-        <v>301.9114694932512</v>
+        <v>301.911469493251</v>
       </c>
       <c r="N31" t="n">
-        <v>300.8785061198822</v>
+        <v>300.8785061198821</v>
       </c>
       <c r="O31" t="n">
-        <v>263.8389798348815</v>
+        <v>263.8389798348813</v>
       </c>
       <c r="P31" t="n">
-        <v>205.9852289260793</v>
+        <v>205.9852289260792</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.82732828615335</v>
+        <v>66.8273282861532</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
@@ -37154,19 +37154,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>291.0298521604568</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>355.8161167292792</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>628.0270263295591</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>433.4616586802716</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>138.1845934903002</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2814067694342</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>204.5443435591683</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>291.0298521604568</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>355.8161167292792</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>628.02702632956</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>248.8073173394297</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.6370576465881</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377842</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37634,16 +37634,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,19 +37780,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>204.5443435591683</v>
       </c>
       <c r="L41" t="n">
-        <v>552.8228724938882</v>
+        <v>291.0298521604568</v>
       </c>
       <c r="M41" t="n">
-        <v>355.8161167292792</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>366.2340059961277</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>412.2325820949272</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38020,16 +38020,16 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>552.8228724938882</v>
+        <v>484.1095202638016</v>
       </c>
       <c r="M44" t="n">
-        <v>355.8161167292792</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>366.2340059961277</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>332.3544258324018</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
